--- a/data/trans_orig/P14A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF72B54-9972-49E5-8B63-804C5EB0E3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B82D27-FEE7-4526-9F15-6A0C93FF9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CC614C9-3639-48F2-A3E9-E92BDCDDF452}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52FC9FEE-36FB-492D-B2FB-6FB665064469}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="213">
   <si>
     <t>Población que recibe medicación o terapia por asma en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>63,19%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>81,06%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>36,81%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -123,10 +123,10 @@
     <t>18,94%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -135,49 +135,49 @@
     <t>64,62%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>65,12%</t>
+    <t>68,25%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>34,88%</t>
+    <t>31,75%</t>
   </si>
   <si>
     <t>20,05%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -189,13 +189,13 @@
     <t>88,13%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>61,4%</t>
   </si>
   <si>
     <t>92,25%</t>
   </si>
   <si>
-    <t>76,32%</t>
+    <t>75,75%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -204,13 +204,13 @@
     <t>11,87%</t>
   </si>
   <si>
-    <t>39,67%</t>
+    <t>38,6%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>23,68%</t>
+    <t>24,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -246,7 +246,7 @@
     <t>89,22%</t>
   </si>
   <si>
-    <t>66,54%</t>
+    <t>67,3%</t>
   </si>
   <si>
     <t>20,11%</t>
@@ -264,7 +264,7 @@
     <t>10,78%</t>
   </si>
   <si>
-    <t>33,46%</t>
+    <t>32,7%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -291,55 +291,55 @@
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -351,157 +351,151 @@
     <t>57,12%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>73,96%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>59,67%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>40,33%</t>
   </si>
   <si>
     <t>76,05%</t>
   </si>
   <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>23,95%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>50,31%</t>
+    <t>45,56%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>49,69%</t>
+    <t>54,44%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -510,19 +504,19 @@
     <t>80,6%</t>
   </si>
   <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -531,19 +525,19 @@
     <t>19,4%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>82,96%</t>
@@ -555,16 +549,16 @@
     <t>89,1%</t>
   </si>
   <si>
-    <t>65,97%</t>
+    <t>67,2%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>17,04%</t>
@@ -576,25 +570,25 @@
     <t>10,9%</t>
   </si>
   <si>
-    <t>34,03%</t>
+    <t>32,8%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>93,34%</t>
@@ -606,19 +600,19 @@
     <t>91,09%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>6,66%</t>
@@ -630,64 +624,58 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>86,96%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>13,04%</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D7DACA-BEEA-4F7D-B77E-0B0ACF58BADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81F7D0-BE57-40E3-83E7-C13133BBA76C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2318,7 +2306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD889DE1-CA5B-49ED-96C4-793B8D4D936A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B73D6-7A74-4E2D-8683-CF24C87FB8CE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2478,7 +2466,7 @@
         <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2481,13 @@
         <v>7048</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2508,13 +2496,13 @@
         <v>2792</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -2523,13 +2511,13 @@
         <v>9840</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2585,13 @@
         <v>12180</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2612,13 +2600,13 @@
         <v>15118</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2627,13 +2615,13 @@
         <v>27299</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2636,13 @@
         <v>3835</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2663,13 +2651,13 @@
         <v>6188</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -2678,13 +2666,13 @@
         <v>10023</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,10 +2740,10 @@
         <v>10181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2767,13 +2755,13 @@
         <v>18946</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -2782,13 +2770,13 @@
         <v>29128</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2791,13 @@
         <v>2283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2818,13 +2806,13 @@
         <v>3924</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2833,13 +2821,13 @@
         <v>6207</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2898,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2922,13 +2910,13 @@
         <v>17430</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2937,13 +2925,13 @@
         <v>25618</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,7 +2952,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2973,13 +2961,13 @@
         <v>4196</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2988,13 +2976,13 @@
         <v>4196</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,10 +3050,10 @@
         <v>10177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -3077,10 +3065,10 @@
         <v>17460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3092,13 +3080,13 @@
         <v>27636</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3101,13 @@
         <v>2090</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3128,13 +3116,13 @@
         <v>2136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3143,13 +3131,13 @@
         <v>4226</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3205,13 @@
         <v>18181</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3232,10 +3220,10 @@
         <v>32118</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3247,13 +3235,13 @@
         <v>50298</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3256,13 @@
         <v>2631</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3283,13 +3271,13 @@
         <v>2291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3298,13 +3286,13 @@
         <v>4923</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3360,13 @@
         <v>68296</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -3387,13 +3375,13 @@
         <v>119631</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>177</v>
@@ -3402,13 +3390,13 @@
         <v>187928</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3411,13 @@
         <v>17889</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3438,13 +3426,13 @@
         <v>21527</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -3453,13 +3441,13 @@
         <v>39415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A09-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B82D27-FEE7-4526-9F15-6A0C93FF9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A754F897-E446-4E41-B781-6D3DFAD7D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52FC9FEE-36FB-492D-B2FB-6FB665064469}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7812B4CF-0E04-47C9-8BAA-4D09C375CEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="215">
   <si>
     <t>Población que recibe medicación o terapia por asma en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>63,19%</t>
   </si>
   <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>81,06%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>36,81%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -123,10 +123,10 @@
     <t>18,94%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -135,49 +135,49 @@
     <t>64,62%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>67,93%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>31,75%</t>
+    <t>32,07%</t>
   </si>
   <si>
     <t>20,05%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -189,13 +189,13 @@
     <t>88,13%</t>
   </si>
   <si>
-    <t>61,4%</t>
+    <t>63,83%</t>
   </si>
   <si>
     <t>92,25%</t>
   </si>
   <si>
-    <t>75,75%</t>
+    <t>76,39%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -204,13 +204,13 @@
     <t>11,87%</t>
   </si>
   <si>
-    <t>38,6%</t>
+    <t>36,17%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>24,25%</t>
+    <t>23,61%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -234,37 +234,37 @@
     <t>79,89%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>31,83%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>68,93%</t>
+    <t>68,6%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>67,3%</t>
+    <t>62,01%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>79,15%</t>
+    <t>68,17%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>31,07%</t>
+    <t>31,4%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>32,7%</t>
+    <t>37,99%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -291,211 +291,211 @@
     <t>83,43%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por asma en 2015 (Tasa respuesta: 3,29%)</t>
+    <t>Población que recibe medicación o terapia por asma en 2016 (Tasa respuesta: 3,29%)</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>73,96%</t>
   </si>
   <si>
-    <t>59,67%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>40,33%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>76,05%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>23,95%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>45,56%</t>
+    <t>51,11%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>54,44%</t>
+    <t>48,89%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -504,19 +504,19 @@
     <t>80,6%</t>
   </si>
   <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -525,157 +525,163 @@
     <t>19,4%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>52,23%</t>
+    <t>49,58%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>67,2%</t>
+    <t>66,74%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>47,77%</t>
+    <t>50,42%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>33,26%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>74,58%</t>
+    <t>78,1%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>25,42%</t>
+    <t>21,9%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>86,96%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>13,04%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81F7D0-BE57-40E3-83E7-C13133BBA76C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F573BC-D90A-4137-9B25-9FC18E477B74}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2306,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B73D6-7A74-4E2D-8683-CF24C87FB8CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E898F161-32CE-4903-95E7-074F4AF7E660}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2466,7 +2472,7 @@
         <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2487,13 @@
         <v>7048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2496,13 +2502,13 @@
         <v>2792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -2511,13 +2517,13 @@
         <v>9840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2591,13 @@
         <v>12180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2600,13 +2606,13 @@
         <v>15118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2615,13 +2621,13 @@
         <v>27299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2642,13 @@
         <v>3835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2651,13 +2657,13 @@
         <v>6188</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -2666,13 +2672,13 @@
         <v>10023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,10 +2746,10 @@
         <v>10181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2755,13 +2761,13 @@
         <v>18946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -2770,13 +2776,13 @@
         <v>29128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2797,13 @@
         <v>2283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2806,13 +2812,13 @@
         <v>3924</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -3393,10 +3399,10 @@
         <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3417,13 @@
         <v>17889</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3426,13 +3432,13 @@
         <v>21527</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -3441,13 +3447,13 @@
         <v>39415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
